--- a/【小轮子】/【20180803】/weather.xlsx
+++ b/【小轮子】/【20180803】/weather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CBE6C6-451C-4919-9B41-4D44B1DDDA15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9C093-BDB5-47EA-A02C-F9C51A865AD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{6832EF01-F107-4415-9DD1-5BDD5A20BE68}"/>
   </bookViews>
